--- a/biology/Médecine/François_Lepescheux-Dauvais/François_Lepescheux-Dauvais.xlsx
+++ b/biology/Médecine/François_Lepescheux-Dauvais/François_Lepescheux-Dauvais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Lepescheux-Dauvais</t>
+          <t>François_Lepescheux-Dauvais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Lepescheux-Dauvais (9 décembre 1754, Laval - 27 avril 1827, Laval), médecin et homme politique français. Il est  maire de Laval de 1792 à 1794.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Lepescheux-Dauvais</t>
+          <t>François_Lepescheux-Dauvais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph François Le Pescheux d'Auvais est le fils de René Le Pescheux, sieur du Verger, et de Michelle Buchet. Il épouse sa cousine Renée Le Pescheux de La Couldre, fille d'Augustin Le Pescheux, sieur de La Coudre, et de Marie Bertron de La Pignerie.
 Il est reçu docteur en médecine de la Faculté d'Angers le 18 juin 1776, et vient s'établir à Laval. Le 15 novembre 1790, il est nommé procureur de la Commune ; le 12 décembre 1791, il accepte le poste de maire de Laval, refusé par les autres. Il est réélu en 1792, et maintenu dans cette charge en l'an II (2 avril 1794), par René François-Primaudière, malgré ses attaches fédéralistes.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Lepescheux-Dauvais</t>
+          <t>François_Lepescheux-Dauvais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Sources partielles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article..
 « François Lepescheux-Dauvais », dans Alphonse-Victor Angot et Ferdinand Gaugain, Dictionnaire historique, topographique et biographique de la Mayenne, Laval, Goupil, 1900-1910 [détail des éditions] (lire en ligne)
-Paul Delaunay, Vieux médecins mayennais [1]
+Paul Delaunay, Vieux médecins mayennais 
  Portail de la Révolution française   Portail de la Mayenne   Portail de la politique française   Portail de la médecine   Portail de Laval                 </t>
         </is>
       </c>
